--- a/biology/Médecine/Polypose_nasosinusienne/Polypose_nasosinusienne.xlsx
+++ b/biology/Médecine/Polypose_nasosinusienne/Polypose_nasosinusienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La polypose nasosinusienne (PNS) ou naso-sinusienne, plus simplement appelée polypose nasale, est une maladie affectant les sinus de la face. C'est  une maladie inflammatoire chronique. Elle se traduit par une congestion des muqueuses nasales et sinusiennes : pour des raisons mal connues qui peuvent être liées à une allergie, la muqueuse des sinus s'épaissit par multiplication anormale de cellules (comme dans la maladie asthmatique), pouvant entraîner selon le stade évolutif une gêne respiratoire, voire une perte d'odorat (anosmie) si la fente olfactive est atteinte. De multiples polypes peuvent apparaître, réalisant de véritables grappes muqueuses se développant dans les cavités nasales. 
 Quand la polypose nasosinusienne est associée à l'asthme et à une intolérance à l'aspirine, on parle de syndrome de Widal.
 L'hyposmie est la diminution de l'olfaction, l'hémianosmie et la perte d'un seul côté de l'odorat.
 Une gêne auditive (impression d'oreille bouchée, impression de résonance) indique que la trompe d'Eustache est atteinte.
-La surinfection est une complication possible. Des maux de tête persistants peuvent accompagner la PNS. C’est une maladie ressentie comme très invalidante par les personnes atteintes. La PNS atteint indifféremment les femmes et les hommes. Les études montrent qu’elle progresse depuis quelques décennies, atteignant une prévalence de 4 % dans la population générale et de 7 à 15 % chez les patients asthmatiques[1].
+La surinfection est une complication possible. Des maux de tête persistants peuvent accompagner la PNS. C’est une maladie ressentie comme très invalidante par les personnes atteintes. La PNS atteint indifféremment les femmes et les hommes. Les études montrent qu’elle progresse depuis quelques décennies, atteignant une prévalence de 4 % dans la population générale et de 7 à 15 % chez les patients asthmatiques.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une endoscopie ou un examen clinique du nez (rhinoscopie) permet le plus souvent de diagnostiquer la PNS. Le scanner des sinus a l’intérêt d'en préciser la topographie. L’examen montre le plus souvent des polypes bilatéraux et congestionnés, accompagnés parfois d’infections. Les polypes ont l’aspect de grappes de raisins blancs. Suivant leur taille ils peuvent gêner la ventilation nasale jusqu'à entrainer une obstruction totale avec blocage de l'écoulement des mucosités, favorisant ainsi la surinfection.
 </t>
@@ -546,7 +560,9 @@
           <t>Stades de la maladie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'examen endoscopique des fosses nasales permet de déterminer le stade de la PNS. Chez un même patient, chaque fosse nasale et chaque sinus peuvent présenter un stade différent. Voici l’échelle communément admise par les ORL :
 Stade I : polypes localisés au méat moyen
@@ -583,7 +599,9 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La cause inflammatoire de la PNS n’est pas connue avec exactitude. Le rôle de l'allergie ne parait pas toujours prédominant, cependant il faut aussi analyser les allergies ou intolérances alimentaires, aux sulfites par exemple. Il est important de consulter très vite un médecin :
 généraliste ;
@@ -621,7 +639,9 @@
           <t>Prévention</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pulvérisations d'eau de mer ou d'eau douce peuvent aider, plus particulièrement en début de rhume ou encore avant de recevoir le traitement par corticoïdes.
 Il convient aussi d'analyser de potentielles intolérances ou allergies alimentaires, aux sulfites par exemple. En effet, une intolérance aux sulfites peut activer une polypose, de manière très progressive.
@@ -653,7 +673,9 @@
           <t>Intervention chirurgicale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Si les polypes sont trop importants ou si les cures de corticoïdes par voie générale deviennent trop fréquentes ou sont mal supportées, l’ORL peut proposer l’opération. Le patient doit consulter et demander l’avis de plusieurs médecins avant de prendre sa décision. Il doit en mesurer le pour et le contre. Il existe plusieurs techniques :
 Polypectomie : la polypectomie est l’ablation des polypes. Elle est effectuée au serre-nœud, à l’aide de pinces, de différents lasers ou à l'aide d'un microdébrideur, toujours sous contrôle rhinoscopique, endoscopique ou microscopique. L’anesthésie est locale ou générale. Le microdébrideur (shaver) est un instrument dérivé de la chirurgie orthopédique. Il permet de diminuer les saignements et augmente la rapidité opératoire. Le microdébrideur se révèle efficace dans le traitement de la PNS : exérèse des polypes.
@@ -689,7 +711,9 @@
           <t>Utilisation du laser</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le laser est une intervention moins invasive et moins douloureuse que l’opération chirurgicale. L’utilisation du laser permet de réduire le volume d’un cornet ou d’un polype, favorisant ainsi la respiration nasale. Plusieurs séances peuvent être nécessaires. Deux types de laser sont actuellement utilisés pour traiter la polypose nasosinusienne :
 laser YAG (Yttrium Aluminium Garnet) : le laser YAG est le plus utilisé. Le faisceau du laser est transporté par fibre optique. Ce type de laser a la propriété de cautériser et de coaguler.
